--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="2620" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5715" yWindow="2625" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修订版次" sheetId="4" r:id="rId1"/>
     <sheet name="装修预算" sheetId="1" r:id="rId2"/>
     <sheet name="装修要求" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>软装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油烟机＋燃气灶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>灯具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中央空调（1拖3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软装预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,11 +135,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬装预算</t>
+    <t>包阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸＊2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物区和明火区要分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一定的色彩的搭配（灰色、绿色啥的），但不要太花哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有放烤箱和微波炉的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收纳空间多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌占地面积最好可扩展，平时人少的时候把多余的空间利用起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有足够的操作空间（可能经常有2个人在厨房）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个小夜灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅靠近阳台窗的地方有一个休息区，可用于晒太阳、看书等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有挂晒衣服的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做两侧橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅橱柜不要完全封闭，有敞开区域（不要太大）用于放酒和杯子等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有收纳空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可放下双开门冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧的色彩要明亮（不要全白）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发附近最好有放电脑（笔记本）的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有清洁池（用于清洗衣物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房的门要推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣帽间区分功能区（放鞋子、包包、衣服要分开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有明暗两种光源，用于做看电视的背景光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要放下洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色调也不要单一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头两边要有灯的开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景墙不要太复杂，尽量简约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手池的水龙头要可活动的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧洗手间准备放一个泡澡桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放厕纸的地方一定不要在淋雨区内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有坐着穿鞋的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有放梳妆台的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近阳台窗准备放一些绿植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有放恒温水壶（需要电源）的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有放电脑（笔记本）、Ipad、kindle的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有收纳的空间（包括抽屉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有放盆子和泡脚桶的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于智有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加装修要求页签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,191 +331,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>厨房柜子（3.2*2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸＊2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>置物区和明火区要分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一定的色彩的搭配（灰色、绿色啥的），但不要太花哨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有放烤箱和微波炉的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收纳空间多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌占地面积最好可扩展，平时人少的时候把多余的空间利用起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有足够的操作空间（可能经常有2个人在厨房）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有个小夜灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅靠近阳台窗的地方有一个休息区，可用于晒太阳、看书等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有挂晒衣服的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做两侧橱柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅橱柜不要完全封闭，有敞开区域（不要太大）用于放酒和杯子等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有收纳空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可放下双开门冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧的色彩要明亮（不要全白）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发附近最好有放电脑（笔记本）的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有清洁池（用于清洗衣物）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房的门要推拉门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣帽间区分功能区（放鞋子、包包、衣服要分开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有明暗两种光源，用于做看电视的背景光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要放下洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色调也不要单一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床头两边要有灯的开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景墙不要太复杂，尽量简约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手池的水龙头要可活动的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧洗手间准备放一个泡澡桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放厕纸的地方一定不要在淋雨区内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要有坐着穿鞋的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有放梳妆台的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠近阳台窗准备放一些绿植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有放恒温水壶（需要电源）的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有放电脑（笔记本）、Ipad、kindle的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有收纳的空间（包括抽屉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要有放盆子和泡脚桶的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改内容</t>
+    <t>基装施工队费用（包辅料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央空调（1拖4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -347,19 +355,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加装修要求页签</t>
+    <t>更新施工队价格和橱柜部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -475,17 +483,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -494,19 +502,9 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="18"/>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -515,12 +513,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -529,7 +524,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>硬装预算</c:v>
+                  <c:v>基装预算</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>软装预算</c:v>
@@ -547,34 +542,25 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>58800.0</c:v>
+                  <c:v>136800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76500.0</c:v>
+                  <c:v>76500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23000.0</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -587,8 +573,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -602,7 +587,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -964,28 +949,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -993,10 +978,21 @@
         <v>43552</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12">
+        <v>43609</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1012,30 +1008,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="17.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="10.875" style="1"/>
+    <col min="7" max="7" width="10.875" style="2"/>
     <col min="8" max="8" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="17">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1063,12 +1059,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:10" ht="42.75">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1087,16 +1083,16 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>158300</v>
+        <v>231300</v>
       </c>
       <c r="J2" s="4">
         <f>H2-I2</f>
-        <v>141700</v>
+        <v>68700</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>5000</v>
@@ -1116,7 +1112,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>4000</v>
@@ -1134,9 +1130,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
+    <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>800</v>
@@ -1148,24 +1144,24 @@
         <v>6000</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>8000</v>
@@ -1177,14 +1173,14 @@
         <v>2500</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(B2:B20)</f>
-        <v>58800</v>
+        <v>136800</v>
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
@@ -1192,12 +1188,12 @@
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
-        <v>23000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>2000</v>
@@ -1208,19 +1204,13 @@
       <c r="D7" s="1">
         <v>2500</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1000</v>
-      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -1231,21 +1221,27 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <v>17000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1">
+        <v>70000</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
@@ -1253,7 +1249,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1">
         <v>20000</v>
@@ -1273,49 +1269,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="10.875" style="9"/>
     <col min="2" max="2" width="39.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="10"/>
+    <col min="3" max="3" width="24.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="10"/>
     <col min="5" max="5" width="25" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="10" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1323,127 +1319,127 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1451,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1459,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">

--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>软装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,303 +59,311 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>床（3张）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床垫（3张）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶几＋电视柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五斗柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马桶＊2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳洗台＊2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气热水器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室门＊4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手间门＊2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳妆台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软装预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸＊2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物区和明火区要分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一定的色彩的搭配（灰色、绿色啥的），但不要太花哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有放烤箱和微波炉的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收纳空间多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌占地面积最好可扩展，平时人少的时候把多余的空间利用起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有足够的操作空间（可能经常有2个人在厨房）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个小夜灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅靠近阳台窗的地方有一个休息区，可用于晒太阳、看书等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有挂晒衣服的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做两侧橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅橱柜不要完全封闭，有敞开区域（不要太大）用于放酒和杯子等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有收纳空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可放下双开门冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧的色彩要明亮（不要全白）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发附近最好有放电脑（笔记本）的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有清洁池（用于清洗衣物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房的门要推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣帽间区分功能区（放鞋子、包包、衣服要分开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有明暗两种光源，用于做看电视的背景光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要放下洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色调也不要单一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头两边要有灯的开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景墙不要太复杂，尽量简约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手池的水龙头要可活动的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧洗手间准备放一个泡澡桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放厕纸的地方一定不要在淋雨区内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有坐着穿鞋的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有放梳妆台的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近阳台窗准备放一些绿植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有放恒温水壶（需要电源）的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有放电脑（笔记本）、Ipad、kindle的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有收纳的空间（包括抽屉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有放盆子和泡脚桶的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于智有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加装修要求页签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖(114平方＊150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装施工队费用（包辅料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央空调（1拖4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于智有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新施工队价格和橱柜部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>电视</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶几＋电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五斗柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马桶＊2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梳洗台＊2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃气热水器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房水槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室门＊4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手间门＊2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梳妆台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软装预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家电预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸＊2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>置物区和明火区要分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一定的色彩的搭配（灰色、绿色啥的），但不要太花哨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有放烤箱和微波炉的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收纳空间多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌占地面积最好可扩展，平时人少的时候把多余的空间利用起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有足够的操作空间（可能经常有2个人在厨房）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有个小夜灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅靠近阳台窗的地方有一个休息区，可用于晒太阳、看书等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有挂晒衣服的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做两侧橱柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅橱柜不要完全封闭，有敞开区域（不要太大）用于放酒和杯子等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有收纳空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可放下双开门冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧的色彩要明亮（不要全白）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发附近最好有放电脑（笔记本）的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有清洁池（用于清洗衣物）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房的门要推拉门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣帽间区分功能区（放鞋子、包包、衣服要分开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有明暗两种光源，用于做看电视的背景光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要放下洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色调也不要单一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床头两边要有灯的开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景墙不要太复杂，尽量简约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手池的水龙头要可活动的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧洗手间准备放一个泡澡桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放厕纸的地方一定不要在淋雨区内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要有坐着穿鞋的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有放梳妆台的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠近阳台窗准备放一些绿植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有放恒温水壶（需要电源）的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有放电脑（笔记本）、Ipad、kindle的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有收纳的空间（包括抽屉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要有放盆子和泡脚桶的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于智有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加装修要求页签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖(114平方＊150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基装施工队费用（包辅料）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橱柜套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中央空调（1拖4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基装预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于智有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新施工队价格和橱柜部分</t>
+    <t>床（2张）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫（2张）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房推拉门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,19 +550,18 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>136800</c:v>
+                  <c:v>143800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76500</c:v>
+                  <c:v>73000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18000</c:v>
+                  <c:v>18500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
@@ -587,7 +594,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -964,13 +971,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -978,10 +985,10 @@
         <v>43552</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -989,10 +996,10 @@
         <v>43609</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1019,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1031,7 +1038,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1061,10 +1068,10 @@
     </row>
     <row r="2" spans="1:10" ht="42.75">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1073,7 +1080,7 @@
         <v>30000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>5000</v>
@@ -1083,28 +1090,28 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>231300</v>
+        <v>235300</v>
       </c>
       <c r="J2" s="4">
         <f>H2-I2</f>
-        <v>68700</v>
+        <v>64700</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>5000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
         <v>6000</v>
@@ -1112,19 +1119,19 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4500</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>3000</v>
@@ -1132,88 +1139,94 @@
     </row>
     <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>800</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>6000</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <v>3000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1">
         <v>8000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>2500</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1">
         <v>1000</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(B2:B20)</f>
-        <v>136800</v>
+        <v>143800</v>
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
-        <v>76500</v>
+        <v>73000</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
-        <v>18000</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>2000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>2500</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="1">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1">
         <v>20000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>2000</v>
@@ -1221,13 +1234,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>17000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>2000</v>
@@ -1235,21 +1248,27 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
-        <v>70000</v>
+        <v>71000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2000</v>
+      </c>
       <c r="C11" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1">
         <v>20000</v>
@@ -1290,28 +1309,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1319,22 +1338,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
@@ -1342,22 +1361,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5">
@@ -1365,19 +1384,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
@@ -1385,19 +1404,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
@@ -1405,13 +1424,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
@@ -1419,13 +1438,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
@@ -1433,13 +1452,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1447,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1455,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8">

--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>软装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瓷砖(114平方＊150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基装施工队费用（包辅料）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +360,22 @@
   </si>
   <si>
     <t>厨房推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖(地面+墙面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板（140一平）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾粉碎机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +562,10 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>143800</c:v>
+                  <c:v>153500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73000</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18500</c:v>
@@ -594,7 +606,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000033" r="0.75000000000000033" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -996,10 +1008,10 @@
         <v>43609</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1016,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1038,7 +1050,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1071,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>14000</v>
+        <v>14700</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1090,11 +1102,11 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>235300</v>
+        <v>247000</v>
       </c>
       <c r="J2" s="4">
         <f>H2-I2</f>
-        <v>64700</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1105,13 +1117,13 @@
         <v>5000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1">
         <v>4000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1">
         <v>6000</v>
@@ -1125,7 +1137,7 @@
         <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
         <v>3000</v>
@@ -1157,7 +1169,7 @@
         <v>3000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>23</v>
@@ -1187,11 +1199,11 @@
       </c>
       <c r="H6" s="1">
         <f>SUM(B2:B20)</f>
-        <v>143800</v>
+        <v>153500</v>
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
-        <v>73000</v>
+        <v>75000</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
@@ -1212,7 +1224,7 @@
         <v>2500</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1">
         <v>500</v>
@@ -1220,7 +1232,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
         <v>20000</v>
@@ -1234,10 +1246,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1248,10 +1260,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1">
-        <v>71000</v>
+        <v>7000</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1262,16 +1274,40 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1">
         <v>2000</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1">
-        <v>20000</v>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="2625" windowWidth="28800" windowHeight="15945" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5715" yWindow="0" windowWidth="3915" windowHeight="3510" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修订版次" sheetId="4" r:id="rId1"/>
     <sheet name="装修预算" sheetId="1" r:id="rId2"/>
     <sheet name="装修要求" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>软装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,283 +100,355 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>卧室门＊4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手间门＊2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳妆台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软装预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家电预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浴霸＊2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置物区和明火区要分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一定的色彩的搭配（灰色、绿色啥的），但不要太花哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有放烤箱和微波炉的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收纳空间多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐桌占地面积最好可扩展，平时人少的时候把多余的空间利用起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有足够的操作空间（可能经常有2个人在厨房）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个小夜灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅靠近阳台窗的地方有一个休息区，可用于晒太阳、看书等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有挂晒衣服的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做两侧橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅橱柜不要完全封闭，有敞开区域（不要太大）用于放酒和杯子等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有收纳空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可放下双开门冰箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧的色彩要明亮（不要全白）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发附近最好有放电脑（笔记本）的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有清洁池（用于清洗衣物）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房的门要推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣帽间区分功能区（放鞋子、包包、衣服要分开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有明暗两种光源，用于做看电视的背景光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要放下洗衣机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色调也不要单一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床头两边要有灯的开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景墙不要太复杂，尽量简约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗手池的水龙头要可活动的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧洗手间准备放一个泡澡桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放厕纸的地方一定不要在淋雨区内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有坐着穿鞋的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有放梳妆台的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近阳台窗准备放一些绿植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要有放恒温水壶（需要电源）的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有放电脑（笔记本）、Ipad、kindle的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有收纳的空间（包括抽屉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有放盆子和泡脚桶的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于智有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加装修要求页签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装施工队费用（包辅料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央空调（1拖4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基装预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于智有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新施工队价格和橱柜部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床（2张）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床垫（2张）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房推拉门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖(地面+墙面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板（140一平）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能门锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东陶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九牧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法恩莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/42017250729.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10924839792.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卧马桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗格朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满400-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满400-200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋浴套餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>厨房水槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卧室门＊4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手间门＊2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梳妆台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软装预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家电预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浴霸＊2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>置物区和明火区要分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一定的色彩的搭配（灰色、绿色啥的），但不要太花哨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有放烤箱和微波炉的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收纳空间多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐桌占地面积最好可扩展，平时人少的时候把多余的空间利用起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有足够的操作空间（可能经常有2个人在厨房）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有个小夜灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅靠近阳台窗的地方有一个休息区，可用于晒太阳、看书等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有挂晒衣服的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做两侧橱柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅橱柜不要完全封闭，有敞开区域（不要太大）用于放酒和杯子等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有收纳空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可放下双开门冰箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧的色彩要明亮（不要全白）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙发附近最好有放电脑（笔记本）的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有清洁池（用于清洗衣物）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房的门要推拉门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣帽间区分功能区（放鞋子、包包、衣服要分开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有明暗两种光源，用于做看电视的背景光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要放下洗衣机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色调也不要单一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床头两边要有灯的开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景墙不要太复杂，尽量简约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗手池的水龙头要可活动的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主卧洗手间准备放一个泡澡桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放厕纸的地方一定不要在淋雨区内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要有坐着穿鞋的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有放梳妆台的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靠近阳台窗准备放一些绿植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要有放恒温水壶（需要电源）的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有放电脑（笔记本）、Ipad、kindle的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有收纳的空间（包括抽屉）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要有放盆子和泡脚桶的地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于智有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加装修要求页签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基装施工队费用（包辅料）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橱柜套餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中央空调（1拖4）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基装预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于智有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新施工队价格和橱柜部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凉霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床（2张）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床垫（2张）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厨房推拉门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓷砖(地面+墙面)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地板（140一平）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能门锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垃圾粉碎机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +460,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,8 +501,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -464,8 +550,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -501,14 +591,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -562,7 +657,7 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>153500</c:v>
+                  <c:v>155200</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>75000</c:v>
@@ -606,7 +701,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.750000000000001" r="0.750000000000001" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -983,13 +1078,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -997,10 +1092,10 @@
         <v>43552</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1008,10 +1103,10 @@
         <v>43609</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1028,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1050,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1080,9 +1175,9 @@
     </row>
     <row r="2" spans="1:10" ht="42.75">
       <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="14">
         <v>14700</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1102,28 +1197,28 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>247000</v>
+        <v>248700</v>
       </c>
       <c r="J2" s="4">
         <f>H2-I2</f>
-        <v>53000</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
-        <v>5000</v>
+      <c r="B3" s="14">
+        <v>4000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1">
         <v>4000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1">
         <v>6000</v>
@@ -1137,7 +1232,7 @@
         <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>3000</v>
@@ -1151,10 +1246,10 @@
     </row>
     <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1">
-        <v>800</v>
+        <v>106</v>
+      </c>
+      <c r="B5" s="14">
+        <v>500</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1169,21 +1264,21 @@
         <v>3000</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8000</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="14">
+        <v>6800</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1192,14 +1287,14 @@
         <v>2500</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14">
         <v>1000</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(B2:B20)</f>
-        <v>153500</v>
+        <v>155200</v>
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
@@ -1212,7 +1307,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>2000</v>
@@ -1224,7 +1319,7 @@
         <v>2500</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1">
         <v>500</v>
@@ -1232,10 +1327,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20000</v>
+        <v>73</v>
+      </c>
+      <c r="B8" s="14">
+        <v>20200</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1246,7 +1341,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>16000</v>
@@ -1260,13 +1355,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
@@ -1274,40 +1369,35 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1">
         <v>2000</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1">
+        <v>74</v>
+      </c>
+      <c r="D11" s="14">
         <v>22000</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1">
+        <v>72</v>
+      </c>
+      <c r="B12" s="14">
         <v>71000</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="1">
+        <v>86</v>
+      </c>
+      <c r="B13" s="14">
         <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1345,28 +1435,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1374,22 +1464,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
@@ -1397,22 +1487,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5">
@@ -1420,19 +1510,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
@@ -1440,19 +1530,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
@@ -1460,13 +1550,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
@@ -1474,13 +1564,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
@@ -1488,13 +1578,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1502,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1510,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1583,4 +1673,125 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E5:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="46" customWidth="1"/>
+    <col min="9" max="9" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:10">
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10">
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10">
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10">
+        <v>3299</v>
+      </c>
+      <c r="J10">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11">
+        <v>2599</v>
+      </c>
+      <c r="J11">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="G11" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>软装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,22 @@
   </si>
   <si>
     <t>厨房水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关插座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地漏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +571,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -593,6 +609,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,10 +682,10 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>155200</c:v>
+                  <c:v>160624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75000</c:v>
+                  <c:v>76228</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18500</c:v>
@@ -701,7 +726,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.750000000000001" r="0.750000000000001" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000144" r="0.75000000000000144" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1123,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1197,11 +1222,11 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>248700</v>
+        <v>255352</v>
       </c>
       <c r="J2" s="4">
         <f>H2-I2</f>
-        <v>51300</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1209,7 +1234,8 @@
         <v>16</v>
       </c>
       <c r="B3" s="14">
-        <v>4000</v>
+        <f>890+2979</f>
+        <v>3869</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>81</v>
@@ -1294,11 +1320,11 @@
       </c>
       <c r="H6" s="1">
         <f>SUM(B2:B20)</f>
-        <v>155200</v>
+        <v>160624</v>
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
-        <v>75000</v>
+        <v>76228</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
@@ -1344,7 +1370,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="1">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1388,8 +1414,12 @@
       <c r="B12" s="14">
         <v>71000</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="17" t="s">
         <v>105</v>
+      </c>
+      <c r="D12" s="14">
+        <f>629+599</f>
+        <v>1228</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1397,7 +1427,24 @@
         <v>86</v>
       </c>
       <c r="B13" s="14">
-        <v>2000</v>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="14">
+        <f>335+169+342+64+288+47</f>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="14">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1677,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E5:J22"/>
+  <dimension ref="E5:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1765,12 +1812,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="5:6">
+    <row r="20" spans="5:8">
       <c r="E20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="5:6">
+    <row r="21" spans="5:8">
       <c r="E21" t="s">
         <v>101</v>
       </c>
@@ -1778,12 +1825,106 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="5:6">
+    <row r="22" spans="5:8">
       <c r="E22" t="s">
         <v>102</v>
       </c>
       <c r="F22" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="9">
+        <v>20200</v>
+      </c>
+      <c r="H27">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="15">
+        <f>890+2979</f>
+        <v>3869</v>
+      </c>
+      <c r="H28">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="16">
+        <f>335+169+342+64+288+47</f>
+        <v>1245</v>
+      </c>
+      <c r="H29">
+        <v>445463</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="15">
+        <v>2030</v>
+      </c>
+      <c r="H30">
+        <v>69804</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="16">
+        <f>629+599</f>
+        <v>1228</v>
+      </c>
+      <c r="H31">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="H32">
+        <v>79986</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33">
+        <v>31572</v>
+      </c>
+      <c r="H33">
+        <v>-120000</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="H35">
+        <v>529139</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="H36">
+        <v>364000</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="H37">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="0" windowWidth="3915" windowHeight="3510" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="5715" yWindow="0" windowWidth="3915" windowHeight="3510" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修订版次" sheetId="4" r:id="rId1"/>
     <sheet name="装修预算" sheetId="1" r:id="rId2"/>
     <sheet name="装修要求" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
   <si>
     <t>软装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +466,82 @@
   </si>
   <si>
     <t>地漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杯子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12700微信零钱+2000银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓷砖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>618买各种+定木门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额宝+2000银行卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,6 +591,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -522,6 +600,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -682,13 +761,13 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>160624</c:v>
+                  <c:v>156624</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>76228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18500</c:v>
+                  <c:v>17800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +805,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000144" r="0.75000000000000144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000178" r="0.75000000000000178" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1150,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1222,11 +1301,11 @@
       </c>
       <c r="I2" s="4">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>255352</v>
+        <v>250652</v>
       </c>
       <c r="J2" s="4">
         <f>H2-I2</f>
-        <v>44648</v>
+        <v>49348</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1316,11 +1395,11 @@
         <v>25</v>
       </c>
       <c r="F6" s="14">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(B2:B20)</f>
-        <v>160624</v>
+        <v>156624</v>
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
@@ -1328,7 +1407,7 @@
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
-        <v>18500</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1348,7 +1427,7 @@
         <v>79</v>
       </c>
       <c r="F7" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1384,7 +1463,7 @@
         <v>85</v>
       </c>
       <c r="B10" s="1">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
@@ -1465,7 +1544,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1724,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E5:J37"/>
+  <dimension ref="E5:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1812,12 +1891,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="5:8">
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
         <v>101</v>
       </c>
@@ -1825,7 +1904,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="5:8">
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
         <v>102</v>
       </c>
@@ -1833,7 +1912,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
         <v>108</v>
       </c>
@@ -1841,18 +1920,18 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="27" spans="5:8">
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
         <v>109</v>
       </c>
       <c r="F27" s="9">
         <v>20200</v>
       </c>
-      <c r="H27">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8">
+      <c r="I27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9">
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
@@ -1861,10 +1940,13 @@
         <v>3869</v>
       </c>
       <c r="H28">
-        <v>43307</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8">
+        <v>92243</v>
+      </c>
+      <c r="I28">
+        <v>127854</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
       <c r="E29" s="2" t="s">
         <v>107</v>
       </c>
@@ -1873,10 +1955,13 @@
         <v>1245</v>
       </c>
       <c r="H29">
-        <v>445463</v>
-      </c>
-    </row>
-    <row r="30" spans="5:8">
+        <v>396265</v>
+      </c>
+      <c r="I29">
+        <v>341708</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
       <c r="E30" s="2" t="s">
         <v>86</v>
       </c>
@@ -1886,8 +1971,11 @@
       <c r="H30">
         <v>69804</v>
       </c>
-    </row>
-    <row r="31" spans="5:8">
+      <c r="I30">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
       <c r="E31" s="2" t="s">
         <v>105</v>
       </c>
@@ -1899,32 +1987,86 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="32" spans="5:8">
+    <row r="32" spans="5:9">
       <c r="H32">
         <v>79986</v>
       </c>
-    </row>
-    <row r="33" spans="6:8">
+      <c r="I32">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11">
       <c r="F33">
         <v>31572</v>
       </c>
       <c r="H33">
         <v>-120000</v>
       </c>
-    </row>
-    <row r="35" spans="6:8">
+      <c r="I33">
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11">
       <c r="H35">
-        <v>529139</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8">
+        <v>522877</v>
+      </c>
+      <c r="I35">
+        <v>519562</v>
+      </c>
+      <c r="J35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11">
       <c r="H36">
         <v>364000</v>
       </c>
-    </row>
-    <row r="37" spans="6:8">
+      <c r="J36" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11">
       <c r="H37">
-        <v>100000</v>
+        <v>40000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11">
+      <c r="J38" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11">
+      <c r="J39" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11">
+      <c r="J40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K40">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1935,4 +2077,103 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>42600</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>14700</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>11000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>3400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="0" windowWidth="3915" windowHeight="3510" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="5715" yWindow="0" windowWidth="3915" windowHeight="3510" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="修订版次" sheetId="4" r:id="rId1"/>
     <sheet name="装修预算" sheetId="1" r:id="rId2"/>
     <sheet name="装修要求" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="杂项" sheetId="5" r:id="rId4"/>
+    <sheet name="已花费" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="138">
   <si>
     <t>软装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,38 @@
   </si>
   <si>
     <t>余额宝+2000银行卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东+诺贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室门+厨房门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索菲亚橱柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央空调（1拖4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生间铝合金门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,9 +690,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -696,7 +725,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +837,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000178" r="0.75000000000000178" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000189" r="0.75000000000000189" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1181,21 +1213,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>43552</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
@@ -1203,10 +1235,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>43609</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
@@ -1230,7 +1262,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1247,33 +1279,33 @@
     <col min="10" max="10" width="11.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="18.75">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75">
+      <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1281,13 +1313,13 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>14700</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="13">
         <v>30000</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1296,14 +1328,14 @@
       <c r="F2" s="1">
         <v>5000</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>300000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
         <v>250652</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>H2-I2</f>
         <v>49348</v>
       </c>
@@ -1312,11 +1344,11 @@
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <f>890+2979</f>
         <v>3869</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D3" s="1">
@@ -1336,7 +1368,7 @@
       <c r="B4" s="1">
         <v>4000</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="1">
@@ -1353,10 +1385,10 @@
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>500</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1">
@@ -1368,13 +1400,13 @@
       <c r="F5" s="1">
         <v>3000</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1382,10 +1414,10 @@
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>6800</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1">
@@ -1394,7 +1426,7 @@
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>600</v>
       </c>
       <c r="H6" s="1">
@@ -1414,10 +1446,10 @@
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>2000</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
@@ -1426,7 +1458,7 @@
       <c r="E7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="13">
         <v>200</v>
       </c>
     </row>
@@ -1434,10 +1466,10 @@
       <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>20200</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1">
@@ -1445,13 +1477,13 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>20000</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1">
@@ -1462,10 +1494,10 @@
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="13">
         <v>8000</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1">
@@ -1476,13 +1508,13 @@
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>2000</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>22000</v>
       </c>
     </row>
@@ -1490,13 +1522,13 @@
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>71000</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <f>629+599</f>
         <v>1228</v>
       </c>
@@ -1505,7 +1537,7 @@
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>2030</v>
       </c>
     </row>
@@ -1513,7 +1545,7 @@
       <c r="A14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f>335+169+342+64+288+47</f>
         <v>1245</v>
       </c>
@@ -1522,7 +1554,7 @@
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>280</v>
       </c>
     </row>
@@ -1544,248 +1576,248 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="9"/>
-    <col min="2" max="2" width="39.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="10"/>
-    <col min="5" max="5" width="25" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="8"/>
+    <col min="2" max="2" width="39.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="9"/>
+    <col min="5" max="5" width="25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
     </row>
@@ -1805,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1842,7 +1874,7 @@
       <c r="E10" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>97</v>
       </c>
       <c r="H10">
@@ -1856,7 +1888,7 @@
       <c r="E11" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>98</v>
       </c>
       <c r="H11">
@@ -1916,7 +1948,7 @@
       <c r="E26" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>3000</v>
       </c>
     </row>
@@ -1924,7 +1956,7 @@
       <c r="E27" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>20200</v>
       </c>
       <c r="I27" t="s">
@@ -1935,7 +1967,7 @@
       <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <f>890+2979</f>
         <v>3869</v>
       </c>
@@ -1950,7 +1982,7 @@
       <c r="E29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <f>335+169+342+64+288+47</f>
         <v>1245</v>
       </c>
@@ -1965,7 +1997,7 @@
       <c r="E30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <v>2030</v>
       </c>
       <c r="H30">
@@ -1979,7 +2011,7 @@
       <c r="E31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <f>629+599</f>
         <v>1228</v>
       </c>
@@ -2081,10 +2113,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2124,7 +2156,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>42600</v>
+        <v>68450</v>
       </c>
       <c r="C3" t="s">
         <v>122</v>
@@ -2157,6 +2189,9 @@
       <c r="C5" t="s">
         <v>127</v>
       </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -2170,6 +2205,145 @@
       </c>
       <c r="D6" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7">
+        <f>890+2979</f>
+        <v>3869</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>2030</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>20200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <f>335+169+342+64+288+47</f>
+        <v>1245</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12">
+        <f>629+599</f>
+        <v>1228</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>26000</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>9555</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>6500</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>22000</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="0" windowWidth="3915" windowHeight="3510" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="5715" yWindow="0" windowWidth="3915" windowHeight="3510" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修订版次" sheetId="4" r:id="rId1"/>
@@ -796,7 +796,7 @@
                   <c:v>156624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76228</c:v>
+                  <c:v>85228</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17800</c:v>
@@ -837,7 +837,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000189" r="0.75000000000000189" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.750000000000002" r="0.750000000000002" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1333,11 +1333,11 @@
       </c>
       <c r="I2" s="3">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>250652</v>
+        <v>259652</v>
       </c>
       <c r="J2" s="3">
         <f>H2-I2</f>
-        <v>49348</v>
+        <v>40348</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1352,7 +1352,7 @@
         <v>81</v>
       </c>
       <c r="D3" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>80</v>
@@ -1372,7 +1372,7 @@
         <v>82</v>
       </c>
       <c r="D4" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
-        <v>76228</v>
+        <v>85228</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
@@ -1487,7 +1487,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1837,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E5:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -796,7 +796,7 @@
                   <c:v>156624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85228</c:v>
+                  <c:v>110228</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17800</c:v>
@@ -837,7 +837,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.750000000000002" r="0.750000000000002" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000211" r="0.75000000000000211" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1262,7 +1262,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1333,11 +1333,11 @@
       </c>
       <c r="I2" s="3">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>259652</v>
+        <v>284652</v>
       </c>
       <c r="J2" s="3">
         <f>H2-I2</f>
-        <v>40348</v>
+        <v>15348</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1372,7 +1372,7 @@
         <v>82</v>
       </c>
       <c r="D4" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -1392,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1421,7 +1421,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
-        <v>85228</v>
+        <v>110228</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>79</v>
@@ -1487,7 +1487,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1501,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:10">

--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="140">
   <si>
     <t>软装</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,14 @@
   </si>
   <si>
     <t>卫生间铝合金门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙发单椅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +804,7 @@
                   <c:v>156624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110228</c:v>
+                  <c:v>114028</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17800</c:v>
@@ -837,7 +845,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000211" r="0.75000000000000211" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000222" r="0.75000000000000222" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1262,7 +1270,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1333,11 +1341,11 @@
       </c>
       <c r="I2" s="3">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>284652</v>
+        <v>288452</v>
       </c>
       <c r="J2" s="3">
         <f>H2-I2</f>
-        <v>15348</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1351,7 +1359,7 @@
       <c r="C3" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="13">
         <v>10000</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1371,7 +1379,7 @@
       <c r="C4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="13">
         <v>10000</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1391,7 +1399,7 @@
       <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="13">
         <v>12000</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1435,7 +1443,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
-        <v>110228</v>
+        <v>114028</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
@@ -1452,7 +1460,7 @@
       <c r="C7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="13">
         <v>10000</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1540,6 +1548,12 @@
       <c r="B13" s="13">
         <v>2030</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2000</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
@@ -1548,6 +1562,12 @@
       <c r="B14" s="13">
         <f>335+169+342+64+288+47</f>
         <v>1245</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1800</v>
       </c>
     </row>
     <row r="15" spans="1:10">

--- a/装修一本通.xlsx
+++ b/装修一本通.xlsx
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>茶几＋电视柜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>餐桌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,6 +578,10 @@
   </si>
   <si>
     <t>沙发单椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +804,7 @@
                   <c:v>156624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114028</c:v>
+                  <c:v>111028</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17800</c:v>
@@ -845,7 +845,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000222" r="0.75000000000000222" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000233" r="0.75000000000000233" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1222,13 +1222,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1236,10 +1236,10 @@
         <v>43552</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1247,10 +1247,10 @@
         <v>43609</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1289,7 +1289,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="2" spans="1:10" ht="42.75">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="13">
         <v>14700</v>
@@ -1341,29 +1341,29 @@
       </c>
       <c r="I2" s="3">
         <f>SUM(B2:B20)+SUM(D2:D20)+SUM(F2:F20)</f>
-        <v>288452</v>
+        <v>285452</v>
       </c>
       <c r="J2" s="3">
         <f>H2-I2</f>
-        <v>11548</v>
+        <v>14548</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="13">
         <f>890+2979</f>
         <v>3869</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="13">
         <v>10000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1">
         <v>6000</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>4000</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="13">
         <v>10000</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="5" spans="1:10" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="13">
         <v>500</v>
@@ -1403,36 +1403,36 @@
         <v>12000</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>3000</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13">
         <v>6800</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="13">
         <v>600</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="I6" s="1">
         <f>SUM(D2:D20)</f>
-        <v>114028</v>
+        <v>111028</v>
       </c>
       <c r="J6" s="1">
         <f>SUM(F2:F20)</f>
@@ -1452,19 +1452,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13">
         <v>2000</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="13">
         <v>10000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="13">
         <v>200</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="13">
         <v>20200</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>2000</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="13">
         <v>20000</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>6000</v>
@@ -1500,13 +1500,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="13">
         <v>8000</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>2000</v>
@@ -1514,13 +1514,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="13">
         <v>2000</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="13">
         <v>22000</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="13">
         <v>71000</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="13">
         <f>629+599</f>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="13">
         <v>2030</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="13">
         <v>2000</v>
@@ -1557,14 +1557,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="13">
         <f>335+169+342+64+288+47</f>
         <v>1245</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="13">
         <v>1800</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="13">
         <v>280</v>
@@ -1613,28 +1613,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1642,22 +1642,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
@@ -1665,22 +1665,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5">
@@ -1688,19 +1688,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
@@ -1708,19 +1708,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
@@ -1728,13 +1728,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
@@ -1742,13 +1742,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
@@ -1756,13 +1756,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1778,7 +1778,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1869,22 +1869,22 @@
   <sheetData>
     <row r="5" spans="5:10">
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="5:10">
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="5:10">
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="5:10">
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9">
         <v>599</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="10" spans="5:10">
       <c r="E10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10">
         <v>3299</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="11" spans="5:10">
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11">
         <v>2599</v>
@@ -1920,53 +1920,53 @@
     </row>
     <row r="12" spans="5:10">
       <c r="E12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="5:10">
       <c r="E13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="5:10">
       <c r="E14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="5:10">
       <c r="E15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="5:10">
       <c r="E16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
         <v>102</v>
-      </c>
-      <c r="F22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="8">
         <v>3000</v>
@@ -1974,18 +1974,18 @@
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="8">
         <v>20200</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="14">
         <f>890+2979</f>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="29" spans="5:9">
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="15">
         <f>335+169+342+64+288+47</f>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="30" spans="5:9">
       <c r="E30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="14">
         <v>2030</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="31" spans="5:9">
       <c r="E31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="15">
         <f>629+599</f>
@@ -2066,7 +2066,7 @@
         <v>519562</v>
       </c>
       <c r="J35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K35">
         <v>250</v>
@@ -2077,7 +2077,7 @@
         <v>364000</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K36">
         <v>200</v>
@@ -2088,10 +2088,10 @@
         <v>40000</v>
       </c>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>250</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="38" spans="6:11">
       <c r="J38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K38">
         <v>700</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="39" spans="6:11">
       <c r="J39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K39">
         <v>150</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="40" spans="6:11">
       <c r="J40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>135</v>
@@ -2148,222 +2148,222 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>5000</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>68450</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>14700</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>11000</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>3400</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <f>890+2979</f>
         <v>3869</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>2030</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>3000</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>20200</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <f>335+169+342+64+288+47</f>
         <v>1245</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12">
         <f>629+599</f>
         <v>1228</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>10000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>26000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>9555</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>6500</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>22000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>1600</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
